--- a/PRODUTOS/Frios/Frios - Massas frescas.xlsx
+++ b/PRODUTOS/Frios/Frios - Massas frescas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nhoque De Batata Massa Leve 500g</t>
+          <t>Pizza De Frigideira Mezzani 270gr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 12,98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/154cd390-270a-4014-8205-1255c041459a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9b9d135-39de-4aef-a34c-0340b02ea80c.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896216102002</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Massa Fresca Talharim Massa Leve 500g</t>
+          <t>Massa Fresca P/ Lasanha Mezzani 500gr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27fe8250-813a-44a6-ab31-64ee88f40ee6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7fa6c46d-752d-49c9-93b6-0750e9a3ab85.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896364400234</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pizza Brotinho C/8un. Massa Leve 300g</t>
+          <t>Ravioli Mezzani 400gr Carne</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d760ae8f-f366-4a4f-b756-f6f3e96e5082.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8bd5041-4269-4915-9350-9e25455bb828.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896216100572</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Massa De Lasanha Massa Leve 500g</t>
+          <t>Capeletti Mezzani 400gr Frango</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88d71a2b-daaa-4af1-9280-255718267540.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56c4bd7e-8fb4-4ae5-b62c-ef94f6ad4fa9.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896216100534</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Capeletti Massa Leve Carne 400g</t>
+          <t>Capeletti Mezzani 400gr Carne</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2696ab3f-6ef1-4084-91e7-deac28f74882.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b32df5f4-c203-4b69-a944-6d3c5fc31332.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896216100534</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gnocchi De Batata Don Ravelo 500g</t>
+          <t>Capelleti De Queijo Massa Leve 1 Kg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ff8a433-841e-4bbe-b092-fe35817072a1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f28f1f73-794c-405a-ab33-88d2edbd1e19.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896228100621</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Massa P/ Pastel Cumbuca Batie 500g</t>
+          <t>Ravioli De 4 Queijos Massa Leve 1kg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 11,39</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3f4b9ec-dc18-4231-ac1f-ee0b98cb8562.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b756f04-6b69-4e13-b0a1-b47ea24aa1aa.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896228100584</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Massa Para Pizza Brotinho Batie C/8</t>
+          <t>Massa P/ Pastel Discao Batie 500g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16ee6935-f24c-4e9b-9308-f4dd8dbb7375.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba04c388-96c8-4bec-b43d-6d9958264335.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896364400111</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Capeletti Mezzani 400gr Carne</t>
+          <t>Massa P/ Pastel Rolo Batie 1kg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b32df5f4-c203-4b69-a944-6d3c5fc31332.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bca3ab4b-e51d-44cf-9451-523781785b8b.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896364400241</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Massa P/ Pastel Rolo Batie 1kg</t>
+          <t>Massa P/ Pastel Cumbuca Batie 500g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 11,39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bca3ab4b-e51d-44cf-9451-523781785b8b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3f4b9ec-dc18-4231-ac1f-ee0b98cb8562.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896364400111</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Massa Fresca P/ Lasanha Mezzani 500gr</t>
+          <t>Massa P/ Pizza Batie 400g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7fa6c46d-752d-49c9-93b6-0750e9a3ab85.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0019a281-e60e-4a2d-819b-59e7356b1f39.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896364400081</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Massa P/ Pastel Discao Batie 500g</t>
+          <t>Capelleti De Frango Massa Leve 1kg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba04c388-96c8-4bec-b43d-6d9958264335.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fb19317-eec0-4d2c-b219-f2793683e0f6.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896228100577</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Capeletti Mezzani 400gr Frango</t>
+          <t>Massa Para Pizza Brotinho Batie C/8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56c4bd7e-8fb4-4ae5-b62c-ef94f6ad4fa9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16ee6935-f24c-4e9b-9308-f4dd8dbb7375.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896364400661</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Spaghetti Massa Leve 500g</t>
+          <t>Pizza Brotinho C/8un. Massa Leve 300g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d8f57b4-dc27-4c64-bd1d-3387b578bbb1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d760ae8f-f366-4a4f-b756-f6f3e96e5082.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896228100218</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ravioli Massa Leve Carne 400g</t>
+          <t>Massa De Lasanha Massa Leve 500g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c76c6fb-84ab-4219-a677-ff7dc5c14052.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88d71a2b-daaa-4af1-9280-255718267540.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896228100355</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Capelleti De Carne Massa Leve 1kg</t>
+          <t>Capeletti Massa Leve Carne 400g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56ac12ac-68f7-4c76-a405-d844f7383c16.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2696ab3f-6ef1-4084-91e7-deac28f74882.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896228100386</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pizza Frig. Massa Leve 250g</t>
+          <t>Ravioli Massa Leve Carne 400g</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1231ffa0-1cb8-4345-bfc2-1b9d909d21e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c76c6fb-84ab-4219-a677-ff7dc5c14052.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896228100492</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Massa Fresca Tagliatelle Mezzani 500gr</t>
+          <t>Pizza Frig. Massa Leve 250g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee1a9da0-db1b-4591-a715-3e7cd8e3f08b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1231ffa0-1cb8-4345-bfc2-1b9d909d21e2.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896228100706</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ravioli De 4 Queijos Massa Leve 1kg</t>
+          <t>Pizza De Frig.int Massa Leve 250gr</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b756f04-6b69-4e13-b0a1-b47ea24aa1aa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fd190cd-520d-4a70-98a6-df7012f72ace.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896228101178</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Massa P/ Pastel Rolo Buona 500g</t>
+          <t>Fagottini Massa Leve 3 Queijos 1kg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38f520c7-4ab2-49ab-b612-b839dc03b34f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d2960e9-173a-4533-a56a-e47c4831eb86.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896228100713</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ravioli Mezzani 400gr Carne</t>
+          <t>Massa Fresca Talharim Massa Leve 500g</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8bd5041-4269-4915-9350-9e25455bb828.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27fe8250-813a-44a6-ab31-64ee88f40ee6.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896228100607</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pizza De Frig.int Massa Leve 250gr</t>
+          <t>Massa P/ Pastel Massa Leve Rolo 400g</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fd190cd-520d-4a70-98a6-df7012f72ace.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61d121c1-7b69-4c09-8291-214916ddecdb.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896228100102</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Capelleti De Queijo Massa Leve 1 Kg</t>
+          <t>Spaghetti Massa Leve 500g</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f28f1f73-794c-405a-ab33-88d2edbd1e19.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d8f57b4-dc27-4c64-bd1d-3387b578bbb1.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896228101093</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ravioli De Carne Massa Leve 1kg</t>
+          <t>Massa P Mini Pizza Batie 400g</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bafca8b-fb4e-4b74-be51-c2741530dece.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ad9378e-dc48-4e7e-a97a-cb9086201f78.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896364400074</t>
         </is>
       </c>
     </row>
@@ -1122,6 +1247,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5701d88e-8b11-418c-a45d-e84eee5152dd.jpg</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896364400586</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pizza De Frigideira Mezzani 270gr</t>
+          <t>Nhoque De Batata Massa Leve 500g</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 12,98</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9b9d135-39de-4aef-a34c-0340b02ea80c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/154cd390-270a-4014-8205-1255c041459a.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896868300047</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1298,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Massa P/ Pastel Rolo Buona 1kg</t>
+          <t>Massa Fresca P/lasanha Batie 500g</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1173,7 +1308,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/965096d8-b4ee-4275-90d2-d4fedaa800fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1ee76c9-228e-48fc-8f9b-4925a8067df0.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896364400234</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Capelleti De Frango Massa Leve 1kg</t>
+          <t>Nhoque Massa Leve 400g Recheado Com Catupiry</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fb19317-eec0-4d2c-b219-f2793683e0f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebf21ae6-61d5-4f3f-8165-ced174591a4c.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896228100379</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1362,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Massa P/ Mini Pizza Buona 300g</t>
+          <t>Massa P/ Pastel Rolo Buona 500g</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1227,7 +1372,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08252a17-3d1e-4fab-a83f-3d779cfc8b0b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38f520c7-4ab2-49ab-b612-b839dc03b34f.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896868300030</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gnocchi Rana 500g Batata</t>
+          <t>Massa P/ Pastel Rolo Buona 1kg</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 24,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12884aa1-4605-44f4-97c4-c60cf9c5e010.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/965096d8-b4ee-4275-90d2-d4fedaa800fa.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896868300030</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fagottini Massa Leve 3 Queijos 1kg</t>
+          <t>Massa P/ Mini Pizza Buona 300g</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 31,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d2960e9-173a-4533-a56a-e47c4831eb86.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08252a17-3d1e-4fab-a83f-3d779cfc8b0b.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896868300023</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Massa P/pizza Disco Buona C/2un 400g</t>
+          <t>Massa P/ Pastel Discao Buona 500g</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 12,49</t>
+          <t>R$ 9,90</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21c3eb4f-cc63-497a-94fa-1473fcc6b104.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896868300443</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Massa P/pizza Baby Buona 250g</t>
+          <t>Massa P/pastel Rolo Buona 2kg</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40ea91e1-217d-4190-a9d2-1c6b1c51eb8c.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896868300030</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Massa Rana Ravioli 250g Ricota Espinafre</t>
+          <t>Massa P/pizza Baby Buona 250g</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd35ce4b-e65d-4293-b4a9-e14baf4b2cbd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40ea91e1-217d-4190-a9d2-1c6b1c51eb8c.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896868300566</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Massa P/ Pastel Discao Buona 500g</t>
+          <t>Massa P/pizza Disco Buona C/2un 400g</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 9,90</t>
+          <t>R$ 12,49</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21c3eb4f-cc63-497a-94fa-1473fcc6b104.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896868300474</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gnocchi Rana 400g 4 Queijos</t>
+          <t>Rondeli Buona 500g Calabresa/requeijao</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c31333d2-a3ce-4ba6-826a-f1dfe4fd5abf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94f35d71-68d4-4e0e-97a5-95e006bf1082.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896868300252</t>
         </is>
       </c>
     </row>
@@ -1433,314 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nhoque Massa Leve 400g Recheado Com Catupiry</t>
+          <t>Ravioli De Carne Massa Leve 1kg</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebf21ae6-61d5-4f3f-8165-ced174591a4c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Massa Rana 250g Ravioli Formaggi</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>R$ 35,99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9dae844c-4156-4915-a6c9-2dc9ef400867.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Rondeli Buona 500g Calabresa/requeijao</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94f35d71-68d4-4e0e-97a5-95e006bf1082.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Massa Rana 250g Burrata E Arrabbiata</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>R$ 35,99</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/022ae248-7c7d-4ac9-aa4e-7a43806da845.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Massa Rana Ravioli 250g Carne</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>R$ 35,99</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd9074d6-dc48-4a44-904d-c03fab262239.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Massa Rana Ravioli 250g Vitello</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>R$ 35,99</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54ecaed7-6ffa-4b40-8b02-7657b8156d0c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Massa P/pastel Rolo Buona 2kg</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Massa Ravioli 250g Alcachofra</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db1170a7-ed3f-417d-9b5c-eee4fa8b38a1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Massa Rana Ravioli 250g Champignon Funghi</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76a544b6-a262-4b15-ae97-a9a24298a363.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Massa Rana Ravioli 250g Pesto Verde</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80acaaeb-756e-4e1f-b490-772d6eb0c36d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Gnocchi Gioiaverde Rana 400g Abobora</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/190b8631-f3e8-4254-8949-cfae75545aa9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Massas frescas</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Talharini Buona 500g</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c61c119-bdd2-4339-9943-38170e3fbcc1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bafca8b-fb4e-4b74-be51-c2741530dece.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896228100584</t>
         </is>
       </c>
     </row>
